--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>考勤表</t>
   </si>
@@ -32,7 +32,7 @@
     <t>应出勤天数</t>
   </si>
   <si>
-    <t>请假天数</t>
+    <t>请假次数</t>
   </si>
   <si>
     <t>迟到次数</t>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>五</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>张三丰</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,12 +430,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -430,23 +445,23 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="AI2" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:39">
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -544,7 +559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:39">
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -642,17 +657,572 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:39">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>8</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>86684</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AL2:AL4"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AN2:AN4"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
